--- a/8th week/Binh/SE18_BlackBoxTestCase_PhoneManagement_v1.0.xlsx
+++ b/8th week/Binh/SE18_BlackBoxTestCase_PhoneManagement_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7320" tabRatio="821" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7320" tabRatio="821" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -1853,6 +1853,707 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9191624" y="1028699"/>
+          <a:ext cx="1724025" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background Color: E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="8448675" y="1223962"/>
+          <a:ext cx="742949" cy="385763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9648825" y="2562225"/>
+          <a:ext cx="1724025" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background Color: E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Font: Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Size 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8686801" y="1847850"/>
+          <a:ext cx="962024" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="323850" y="1209674"/>
+          <a:ext cx="1857375" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> color: FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Font: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size 12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2181225" y="1633537"/>
+          <a:ext cx="1000125" cy="471488"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3371850" y="76199"/>
+          <a:ext cx="1857375" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> color: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Font: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 18</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4300538" y="847724"/>
+          <a:ext cx="871537" cy="609601"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6686550" y="133350"/>
+          <a:ext cx="2238375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Width: 300</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1860,16 +2561,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1893,7 +2594,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2314575" y="904875"/>
+          <a:off x="3686175" y="1200150"/>
           <a:ext cx="3590925" cy="3162300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1926,6 +2627,655 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7724774" y="2990849"/>
+          <a:ext cx="1724025" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background Color: E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6981825" y="3186112"/>
+          <a:ext cx="742949" cy="385763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7820025" y="4457700"/>
+          <a:ext cx="1724025" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background Color: E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Font: Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Size 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6858001" y="3743325"/>
+          <a:ext cx="962024" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7781925" y="1285875"/>
+          <a:ext cx="2238375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Width: 300</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6924675" y="1581150"/>
+          <a:ext cx="857250" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1447800" y="762000"/>
+          <a:ext cx="1857375" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> color: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Font: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2376488" y="1533525"/>
+          <a:ext cx="1757362" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7791450" y="2190750"/>
+          <a:ext cx="2238375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Width: 300</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="7029450" y="2486025"/>
+          <a:ext cx="762000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1933,16 +3283,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1966,7 +3316,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4467225" y="1152525"/>
+          <a:off x="3848100" y="1571625"/>
           <a:ext cx="3390900" cy="2800350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1999,6 +3349,655 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7724774" y="2990849"/>
+          <a:ext cx="1724025" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background Color: E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="7096125" y="3357562"/>
+          <a:ext cx="628649" cy="52388"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7820025" y="4457700"/>
+          <a:ext cx="1724025" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background Color: E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Font: Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Size 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6858001" y="3743325"/>
+          <a:ext cx="962024" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7781925" y="1285875"/>
+          <a:ext cx="2238375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Width: 300</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6858000" y="1752600"/>
+          <a:ext cx="923925" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1447800" y="762000"/>
+          <a:ext cx="1857375" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> color: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Font: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2376488" y="1533525"/>
+          <a:ext cx="1757362" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7791450" y="2190750"/>
+          <a:ext cx="2238375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Width: 300</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7019925" y="2533650"/>
+          <a:ext cx="771525" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2006,16 +4005,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2039,7 +4038,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3305175" y="1143000"/>
+          <a:off x="4371975" y="1076325"/>
           <a:ext cx="3609975" cy="3019425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2070,6 +4069,655 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7724774" y="2990849"/>
+          <a:ext cx="1724025" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background Color: E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6981825" y="3186112"/>
+          <a:ext cx="742949" cy="385763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7820025" y="4457700"/>
+          <a:ext cx="1724025" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background Color: E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Font: Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Size 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6858001" y="3743325"/>
+          <a:ext cx="962024" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7781925" y="1285875"/>
+          <a:ext cx="2238375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Width: 300</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6924675" y="1581150"/>
+          <a:ext cx="857250" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1447800" y="762000"/>
+          <a:ext cx="1857375" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> color: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Font: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2376488" y="1533525"/>
+          <a:ext cx="1757362" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7791450" y="2190750"/>
+          <a:ext cx="2238375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Width: 300</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="7029450" y="2486025"/>
+          <a:ext cx="762000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2143,6 +4791,655 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10429874" y="3162299"/>
+          <a:ext cx="1724025" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background Color: FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="9058275" y="3357562"/>
+          <a:ext cx="1371599" cy="280988"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7762875" y="5086350"/>
+          <a:ext cx="1724025" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background Color: E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Font: Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Size 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6800851" y="4371975"/>
+          <a:ext cx="962024" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10067925" y="1133475"/>
+          <a:ext cx="2238375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Width: 300</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="7534275" y="1428750"/>
+          <a:ext cx="2533650" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2790825" y="9525"/>
+          <a:ext cx="1857375" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> color: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E4E0E0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Font: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>290513</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3719513" y="781050"/>
+          <a:ext cx="919162" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10058400" y="1962150"/>
+          <a:ext cx="2238375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Width: 300</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7610475" y="2028825"/>
+          <a:ext cx="2447925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2702,7 +5999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:O32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -2715,7 +6014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:P31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -2728,7 +6029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection sqref="A1:N30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -3013,9 +6316,9 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:IV65536"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4459,7 +7762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -5521,7 +8824,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B2" sqref="B2:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5535,7 +8838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:O31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
